--- a/team_specific_matrix/Sacred Heart_B.xlsx
+++ b/team_specific_matrix/Sacred Heart_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2217573221757322</v>
+        <v>0.2215189873417721</v>
       </c>
       <c r="C2">
-        <v>0.5062761506276151</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03347280334728033</v>
+        <v>0.02848101265822785</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1673640167364017</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07112970711297072</v>
+        <v>0.1075949367088608</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="C3">
-        <v>0.02419354838709677</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01612903225806452</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2096774193548387</v>
+        <v>0.2317073170731707</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.303030303030303</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06432748538011696</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005847953216374269</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="E6">
-        <v>0.005847953216374269</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="F6">
-        <v>0.07017543859649122</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.239766081871345</v>
+        <v>0.2606837606837607</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01169590643274854</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1461988304093567</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0.07602339181286549</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3801169590643275</v>
+        <v>0.3632478632478632</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1041666666666667</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03472222222222222</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="F7">
-        <v>0.0763888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1897435897435897</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02777777777777778</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.09722222222222222</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="R7">
-        <v>0.1388888888888889</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="S7">
-        <v>0.3541666666666667</v>
+        <v>0.3743589743589744</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07541899441340782</v>
+        <v>0.07644628099173553</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00558659217877095</v>
+        <v>0.004132231404958678</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0446927374301676</v>
+        <v>0.05578512396694215</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09776536312849161</v>
+        <v>0.09504132231404959</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00558659217877095</v>
+        <v>0.006198347107438017</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1983240223463687</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="R8">
-        <v>0.1284916201117318</v>
+        <v>0.1198347107438017</v>
       </c>
       <c r="S8">
-        <v>0.4441340782122905</v>
+        <v>0.4524793388429752</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,58 +911,58 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.103448275862069</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01379310344827586</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0.06403940886699508</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.1182266009852217</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.004926108374384237</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.1527093596059113</v>
+      </c>
+      <c r="R9">
         <v>0.06896551724137931</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.09655172413793103</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0.006896551724137931</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0.1724137931034483</v>
-      </c>
-      <c r="R9">
-        <v>0.07586206896551724</v>
-      </c>
       <c r="S9">
-        <v>0.4620689655172414</v>
+        <v>0.458128078817734</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1139112903225806</v>
+        <v>0.1094674556213018</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0252016129032258</v>
+        <v>0.02662721893491124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07258064516129033</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1320564516129032</v>
+        <v>0.136094674556213</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01209677419354839</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.188508064516129</v>
+        <v>0.1871301775147929</v>
       </c>
       <c r="R10">
-        <v>0.0846774193548387</v>
+        <v>0.08579881656804733</v>
       </c>
       <c r="S10">
-        <v>0.3709677419354839</v>
+        <v>0.3742603550295858</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1754385964912281</v>
+        <v>0.1757188498402556</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06140350877192982</v>
+        <v>0.07348242811501597</v>
       </c>
       <c r="K11">
-        <v>0.2236842105263158</v>
+        <v>0.2332268370607029</v>
       </c>
       <c r="L11">
-        <v>0.5307017543859649</v>
+        <v>0.5079872204472844</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008771929824561403</v>
+        <v>0.009584664536741214</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7540983606557377</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2213114754098361</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.00819672131147541</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01639344262295082</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5333333333333333</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06666666666666667</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01388888888888889</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2013888888888889</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="I15">
-        <v>0.05555555555555555</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.3789473684210526</v>
       </c>
       <c r="K15">
-        <v>0.03472222222222222</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006944444444444444</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1180555555555556</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1944444444444444</v>
+        <v>0.1736842105263158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006622516556291391</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2052980132450331</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="I16">
-        <v>0.09271523178807947</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J16">
-        <v>0.4172185430463576</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="K16">
-        <v>0.09933774834437085</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01324503311258278</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.02649006622516556</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1390728476821192</v>
+        <v>0.1420765027322404</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01552795031055901</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2142857142857143</v>
+        <v>0.2018561484918794</v>
       </c>
       <c r="I17">
-        <v>0.09627329192546584</v>
+        <v>0.1020881670533643</v>
       </c>
       <c r="J17">
-        <v>0.4130434782608696</v>
+        <v>0.4106728538283063</v>
       </c>
       <c r="K17">
-        <v>0.09937888198757763</v>
+        <v>0.09280742459396751</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01552795031055901</v>
+        <v>0.0185614849187935</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="O17">
-        <v>0.04347826086956522</v>
+        <v>0.04872389791183294</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1024844720496894</v>
+        <v>0.1067285382830626</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01714285714285714</v>
+        <v>0.01739130434782609</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1485714285714286</v>
+        <v>0.1826086956521739</v>
       </c>
       <c r="I18">
-        <v>0.08571428571428572</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="J18">
-        <v>0.4571428571428571</v>
+        <v>0.4217391304347826</v>
       </c>
       <c r="K18">
-        <v>0.09142857142857143</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02857142857142857</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="O18">
-        <v>0.07428571428571429</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09714285714285714</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0148619957537155</v>
+        <v>0.018140589569161</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2208067940552017</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="I19">
-        <v>0.08174097664543524</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J19">
-        <v>0.3895966029723992</v>
+        <v>0.3801965230536659</v>
       </c>
       <c r="K19">
-        <v>0.1146496815286624</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01910828025477707</v>
+        <v>0.01965230536659108</v>
       </c>
       <c r="N19">
-        <v>0.001061571125265393</v>
+        <v>0.001511715797430083</v>
       </c>
       <c r="O19">
-        <v>0.06475583864118896</v>
+        <v>0.06198034769463341</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09341825902335456</v>
+        <v>0.108843537414966</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Sacred Heart_B.xlsx
+++ b/team_specific_matrix/Sacred Heart_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2215189873417721</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02848101265822785</v>
+        <v>0.02608695652173913</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1424050632911392</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1075949367088608</v>
+        <v>0.1043478260869565</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006097560975609756</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C3">
-        <v>0.03658536585365853</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01829268292682927</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7073170731707317</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2317073170731707</v>
+        <v>0.2252747252747253</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04444444444444445</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3111111111111111</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05128205128205128</v>
+        <v>0.05058365758754864</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004273504273504274</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="E6">
-        <v>0.004273504273504274</v>
+        <v>0.003891050583657588</v>
       </c>
       <c r="F6">
-        <v>0.07264957264957266</v>
+        <v>0.06614785992217899</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2606837606837607</v>
+        <v>0.245136186770428</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01282051282051282</v>
+        <v>0.01167315175097276</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1538461538461539</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="S6">
-        <v>0.3632478632478632</v>
+        <v>0.3813229571984436</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08205128205128205</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02564102564102564</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="E7">
-        <v>0.005128205128205128</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="F7">
-        <v>0.06666666666666667</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1897435897435897</v>
+        <v>0.1990521327014218</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02051282051282051</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1128205128205128</v>
+        <v>0.1090047393364929</v>
       </c>
       <c r="R7">
-        <v>0.1230769230769231</v>
+        <v>0.1232227488151659</v>
       </c>
       <c r="S7">
-        <v>0.3743589743589744</v>
+        <v>0.3791469194312796</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07644628099173553</v>
+        <v>0.08058608058608059</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.004132231404958678</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05578512396694215</v>
+        <v>0.05677655677655678</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09504132231404959</v>
+        <v>0.1007326007326007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006198347107438017</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1900826446280992</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="R8">
-        <v>0.1198347107438017</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="S8">
-        <v>0.4524793388429752</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1182266009852217</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01477832512315271</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06403940886699508</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1182266009852217</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004926108374384237</v>
+        <v>0.004424778761061947</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1527093596059113</v>
+        <v>0.1548672566371681</v>
       </c>
       <c r="R9">
-        <v>0.06896551724137931</v>
+        <v>0.06637168141592921</v>
       </c>
       <c r="S9">
-        <v>0.458128078817734</v>
+        <v>0.4690265486725664</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1094674556213018</v>
+        <v>0.1091525423728814</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02662721893491124</v>
+        <v>0.02576271186440678</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07100591715976332</v>
+        <v>0.07186440677966102</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.136094674556213</v>
+        <v>0.1349152542372881</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009615384615384616</v>
+        <v>0.008813559322033898</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1871301775147929</v>
+        <v>0.1857627118644068</v>
       </c>
       <c r="R10">
-        <v>0.08579881656804733</v>
+        <v>0.08949152542372882</v>
       </c>
       <c r="S10">
-        <v>0.3742603550295858</v>
+        <v>0.3742372881355932</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1757188498402556</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07348242811501597</v>
+        <v>0.0712166172106825</v>
       </c>
       <c r="K11">
-        <v>0.2332268370607029</v>
+        <v>0.2344213649851632</v>
       </c>
       <c r="L11">
-        <v>0.5079872204472844</v>
+        <v>0.5074183976261127</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009584664536741214</v>
+        <v>0.008902077151335312</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7407407407407407</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.228395061728395</v>
+        <v>0.2298850574712644</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006172839506172839</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02469135802469136</v>
+        <v>0.02298850574712644</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5581395348837209</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3953488372093023</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01052631578947368</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1894736842105263</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="I15">
-        <v>0.08421052631578947</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="J15">
-        <v>0.3789473684210526</v>
+        <v>0.3707317073170732</v>
       </c>
       <c r="K15">
-        <v>0.05263157894736842</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01052631578947368</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1736842105263158</v>
+        <v>0.1804878048780488</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.00546448087431694</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2131147540983606</v>
+        <v>0.2107843137254902</v>
       </c>
       <c r="I16">
-        <v>0.08743169398907104</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J16">
-        <v>0.4098360655737705</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="K16">
-        <v>0.09836065573770492</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01092896174863388</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03278688524590164</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1420765027322404</v>
+        <v>0.142156862745098</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01624129930394431</v>
+        <v>0.01502145922746781</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2018561484918794</v>
+        <v>0.2017167381974249</v>
       </c>
       <c r="I17">
-        <v>0.1020881670533643</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="J17">
-        <v>0.4106728538283063</v>
+        <v>0.4055793991416309</v>
       </c>
       <c r="K17">
-        <v>0.09280742459396751</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0185614849187935</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="N17">
-        <v>0.002320185614849188</v>
+        <v>0.002145922746781116</v>
       </c>
       <c r="O17">
-        <v>0.04872389791183294</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1067285382830626</v>
+        <v>0.1137339055793991</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01739130434782609</v>
+        <v>0.01937984496124031</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1826086956521739</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="I18">
-        <v>0.08260869565217391</v>
+        <v>0.08914728682170543</v>
       </c>
       <c r="J18">
-        <v>0.4217391304347826</v>
+        <v>0.4224806201550387</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.09689922480620156</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02608695652173913</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N18">
-        <v>0.004347826086956522</v>
+        <v>0.003875968992248062</v>
       </c>
       <c r="O18">
-        <v>0.06521739130434782</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.018140589569161</v>
+        <v>0.01708817498291183</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2169312169312169</v>
+        <v>0.2228298017771702</v>
       </c>
       <c r="I19">
-        <v>0.08163265306122448</v>
+        <v>0.07997265892002735</v>
       </c>
       <c r="J19">
-        <v>0.3801965230536659</v>
+        <v>0.380041011619959</v>
       </c>
       <c r="K19">
-        <v>0.1111111111111111</v>
+        <v>0.1093643198906357</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01965230536659108</v>
+        <v>0.01845522898154477</v>
       </c>
       <c r="N19">
-        <v>0.001511715797430083</v>
+        <v>0.001367053998632946</v>
       </c>
       <c r="O19">
-        <v>0.06198034769463341</v>
+        <v>0.06288448393711552</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.108843537414966</v>
+        <v>0.1079972658920027</v>
       </c>
     </row>
   </sheetData>
